--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -549,7 +549,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
